--- a/static/Client ETF Holdings.xlsx
+++ b/static/Client ETF Holdings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanilgulati/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ETF-Dashboard\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E6C4E4-31BA-344F-9665-185BB6F50AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45705D89-2B25-4234-9D73-99BD8967B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7CDF410B-FD62-8643-A1A1-92C14381AB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{7CDF410B-FD62-8643-A1A1-92C14381AB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Korea Investment Corp" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>ETF Full Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -963,24 +960,28 @@
   </si>
   <si>
     <t>Tracks a market-cap-weighted index of global solar energy companies</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -988,7 +989,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1002,8 +1003,15 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1354,422 +1362,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A258F05-074D-FE4C-823E-24240548A7E0}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="120.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="2000" max="2000" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="4">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="4">
         <v>5.3E-3</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="4">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="4">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="4">
         <v>1E-3</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D18" s="4">
         <v>1E-4</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="4">
         <v>1E-4</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="4">
         <v>1E-4</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="4">
         <v>1E-4</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="4">
         <v>1E-4</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="4">
         <v>1E-4</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="4">
         <v>1E-4</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="4">
         <v>1E-4</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="4">
         <v>1E-4</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -1777,6 +1786,7 @@
       <c r="E28" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1785,117 +1795,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA5E7F9-5E26-4246-BF59-EAF8E59317BE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="130.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>297</v>
       </c>
       <c r="D2" s="3">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>300</v>
       </c>
       <c r="D3" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
         <v>301</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>302</v>
       </c>
-      <c r="C6" t="s">
-        <v>303</v>
-      </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
         <v>304</v>
       </c>
-      <c r="C7" t="s">
-        <v>305</v>
-      </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1905,129 +1916,130 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="3">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
       </c>
       <c r="D3" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2040,266 +2052,267 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="3">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
       </c>
       <c r="D3" s="3">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
       </c>
       <c r="D7" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
       </c>
       <c r="D9" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
       </c>
       <c r="D11" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
       </c>
       <c r="D14" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
       </c>
       <c r="D15" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
         <v>138</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>142</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2312,463 +2325,464 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
         <v>156</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
       </c>
       <c r="D6" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
       </c>
       <c r="D7" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
       </c>
       <c r="D10" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
       </c>
       <c r="D11" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
         <v>170</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>171</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>173</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>174</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>176</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>177</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
         <v>180</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>186</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>187</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>190</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>192</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>193</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>195</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>196</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>198</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>199</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>202</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>204</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>205</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>207</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>210</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>211</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>213</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>214</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>216</v>
       </c>
-      <c r="B32" t="s">
-        <v>217</v>
-      </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2779,71 +2793,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
       </c>
       <c r="D2" s="3">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
         <v>221</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
       </c>
       <c r="D4" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2856,155 +2871,156 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3">
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3">
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>225</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
       </c>
       <c r="D5" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
         <v>227</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>229</v>
       </c>
       <c r="D6" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
       </c>
       <c r="D7" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
         <v>195</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>197</v>
       </c>
       <c r="D8" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
         <v>230</v>
       </c>
-      <c r="B9" t="s">
-        <v>231</v>
-      </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3017,197 +3033,198 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3">
         <v>9.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
         <v>234</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
       </c>
       <c r="D4" s="3">
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
         <v>237</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
       </c>
       <c r="D5" s="3">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="3">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
         <v>117</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
       </c>
       <c r="D9" s="3">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
         <v>241</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>242</v>
-      </c>
-      <c r="C10" t="s">
-        <v>243</v>
       </c>
       <c r="D10" s="3">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
         <v>244</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>245</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
       </c>
       <c r="D11" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
         <v>247</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>248</v>
-      </c>
-      <c r="C12" t="s">
-        <v>249</v>
       </c>
       <c r="D12" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
         <v>250</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>251</v>
-      </c>
-      <c r="C13" t="s">
-        <v>252</v>
       </c>
       <c r="D13" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3220,98 +3237,99 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="165.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="165.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
       </c>
       <c r="D2" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
         <v>257</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>258</v>
-      </c>
-      <c r="C5" t="s">
-        <v>259</v>
       </c>
       <c r="D5" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
         <v>260</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>261</v>
       </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3324,323 +3342,324 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>206</v>
       </c>
       <c r="D2" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
       <c r="D4" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
         <v>265</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>266</v>
-      </c>
-      <c r="C7" t="s">
-        <v>267</v>
       </c>
       <c r="D7" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" t="s">
         <v>268</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
       </c>
       <c r="D8" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
       </c>
       <c r="D9" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
         <v>270</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>272</v>
       </c>
       <c r="D10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
         <v>274</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>275</v>
-      </c>
-      <c r="C12" t="s">
-        <v>276</v>
       </c>
       <c r="D12" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" t="s">
         <v>277</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>278</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
       </c>
       <c r="D13" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
       </c>
       <c r="D14" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
         <v>280</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>281</v>
-      </c>
-      <c r="C15" t="s">
-        <v>282</v>
       </c>
       <c r="D15" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" t="s">
         <v>283</v>
       </c>
-      <c r="B17" t="s">
-        <v>284</v>
-      </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="3">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="s">
         <v>285</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>286</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>288</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>289</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>291</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>292</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" t="s">
-        <v>294</v>
-      </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>